--- a/Task Board-Team F-Sprint 3.xlsx
+++ b/Task Board-Team F-Sprint 3.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Aishwarya" sheetId="1" r:id="rId1"/>
     <sheet name="Aditya" sheetId="2" r:id="rId2"/>
     <sheet name="Ayush" sheetId="3" r:id="rId3"/>
+    <sheet name="Samanway" sheetId="4" r:id="rId4"/>
+    <sheet name="Akshay" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="61">
   <si>
     <t>Agile Task Board</t>
   </si>
@@ -161,6 +163,54 @@
   </si>
   <si>
     <t>UI - Create Angular Component &amp; Template for "Delete Transactions Page" using Bootstrap &amp; Angular</t>
+  </si>
+  <si>
+    <t>Samanway Sahoo</t>
+  </si>
+  <si>
+    <t>Loans</t>
+  </si>
+  <si>
+    <t>Create SQL Server table named "Loans"</t>
+  </si>
+  <si>
+    <t>UI - Create LoansService using Angular for CRUD operations</t>
+  </si>
+  <si>
+    <t>UI - Create Angular Component &amp; Template for "Loans Page" using Bootstrap &amp; Angular</t>
+  </si>
+  <si>
+    <t>UI - Create Angular Component &amp; Template for "Edit Loans Page" using Bootstrap &amp; Angular</t>
+  </si>
+  <si>
+    <t>UI - Create Angular Component &amp; Template for "Delete Loans Page" using Bootstrap &amp; Angular</t>
+  </si>
+  <si>
+    <t>Akshay Tople</t>
+  </si>
+  <si>
+    <t>Customers</t>
+  </si>
+  <si>
+    <t>Create SQL Server table named "Customers"</t>
+  </si>
+  <si>
+    <t>UI - Create CustomersService using Angular for CRUD operations</t>
+  </si>
+  <si>
+    <t>UI - Create Angular Component &amp; Template for "Customers Page" using Bootstrap &amp; Angular</t>
+  </si>
+  <si>
+    <t>UI - Create Angular Component &amp; Template for "Edit Customers Page" using Bootstrap &amp; Angular</t>
+  </si>
+  <si>
+    <t>UI - Create Angular Component &amp; Template for "Delete Customers Page" using Bootstrap &amp; Angular</t>
+  </si>
+  <si>
+    <t>UI - Create Angular Component &amp; Template for "Create Customer Page" using Bootstrap &amp; Angular</t>
+  </si>
+  <si>
+    <t>UI - Create Angular Component &amp; Template for "Create Loan Page" using Bootstrap &amp; Angular</t>
   </si>
 </sst>
 </file>
@@ -280,9 +330,6 @@
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -300,6 +347,9 @@
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,7 +666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -629,11 +679,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -795,11 +845,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
@@ -926,7 +976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -937,124 +987,437 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="97.42578125" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="91.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="100.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="16"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="16"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
